--- a/natmiOut/YoungD7/LR-pairs_lrc2p/F13a1-Itga4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/F13a1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>F13a1</t>
   </si>
   <si>
     <t>Itga4</t>
   </si>
   <si>
-    <t>sCs</t>
+    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,49 +534,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>78.5575124609945</v>
+        <v>15.64083466666667</v>
       </c>
       <c r="H2">
-        <v>78.5575124609945</v>
+        <v>46.922504</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1109322123870545</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1109322123870545</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>48.313351902659</v>
+        <v>23.65990166666667</v>
       </c>
       <c r="N2">
-        <v>48.313351902659</v>
+        <v>70.979705</v>
       </c>
       <c r="O2">
-        <v>0.9642802841836725</v>
+        <v>0.2997993941754699</v>
       </c>
       <c r="P2">
-        <v>0.9642802841836725</v>
+        <v>0.29979939417547</v>
       </c>
       <c r="Q2">
-        <v>3795.376744125547</v>
+        <v>370.0606101979245</v>
       </c>
       <c r="R2">
-        <v>3795.376744125547</v>
+        <v>3330.54549178132</v>
       </c>
       <c r="S2">
-        <v>0.9642802841836725</v>
+        <v>0.03325741006818349</v>
       </c>
       <c r="T2">
-        <v>0.9642802841836725</v>
+        <v>0.03325741006818349</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +584,681 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>15.64083466666667</v>
+      </c>
+      <c r="H3">
+        <v>46.922504</v>
+      </c>
+      <c r="I3">
+        <v>0.1109322123870545</v>
+      </c>
+      <c r="J3">
+        <v>0.1109322123870545</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N3">
+        <v>0.230717</v>
+      </c>
+      <c r="O3">
+        <v>0.0009744872400636476</v>
+      </c>
+      <c r="P3">
+        <v>0.0009744872400636479</v>
+      </c>
+      <c r="Q3">
+        <v>1.202868817263111</v>
+      </c>
+      <c r="R3">
+        <v>10.825819355368</v>
+      </c>
+      <c r="S3">
+        <v>0.0001081020254832151</v>
+      </c>
+      <c r="T3">
+        <v>0.0001081020254832151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>15.64083466666667</v>
+      </c>
+      <c r="H4">
+        <v>46.922504</v>
+      </c>
+      <c r="I4">
+        <v>0.1109322123870545</v>
+      </c>
+      <c r="J4">
+        <v>0.1109322123870545</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>53.21452433333334</v>
+      </c>
+      <c r="N4">
+        <v>159.643573</v>
+      </c>
+      <c r="O4">
+        <v>0.6742919890890982</v>
+      </c>
+      <c r="P4">
+        <v>0.6742919890890983</v>
+      </c>
+      <c r="Q4">
+        <v>832.3195769629771</v>
+      </c>
+      <c r="R4">
+        <v>7490.876192666793</v>
+      </c>
+      <c r="S4">
+        <v>0.07480070214452124</v>
+      </c>
+      <c r="T4">
+        <v>0.07480070214452127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>15.64083466666667</v>
+      </c>
+      <c r="H5">
+        <v>46.922504</v>
+      </c>
+      <c r="I5">
+        <v>0.1109322123870545</v>
+      </c>
+      <c r="J5">
+        <v>0.1109322123870545</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.967779333333333</v>
+      </c>
+      <c r="N5">
+        <v>5.903338</v>
+      </c>
+      <c r="O5">
+        <v>0.02493412949536815</v>
+      </c>
+      <c r="P5">
+        <v>0.02493412949536816</v>
+      </c>
+      <c r="Q5">
+        <v>30.77771121315023</v>
+      </c>
+      <c r="R5">
+        <v>276.999400918352</v>
+      </c>
+      <c r="S5">
+        <v>0.002765998148866499</v>
+      </c>
+      <c r="T5">
+        <v>0.0027659981488665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>78.5575124609945</v>
-      </c>
-      <c r="H3">
-        <v>78.5575124609945</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1.78966554476239</v>
-      </c>
-      <c r="N3">
-        <v>1.78966554476239</v>
-      </c>
-      <c r="O3">
-        <v>0.03571971581632748</v>
-      </c>
-      <c r="P3">
-        <v>0.03571971581632748</v>
-      </c>
-      <c r="Q3">
-        <v>140.591673333684</v>
-      </c>
-      <c r="R3">
-        <v>140.591673333684</v>
-      </c>
-      <c r="S3">
-        <v>0.03571971581632748</v>
-      </c>
-      <c r="T3">
-        <v>0.03571971581632748</v>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>125.3338013333333</v>
+      </c>
+      <c r="H6">
+        <v>376.001404</v>
+      </c>
+      <c r="I6">
+        <v>0.888926720670292</v>
+      </c>
+      <c r="J6">
+        <v>0.8889267206702921</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>23.65990166666667</v>
+      </c>
+      <c r="N6">
+        <v>70.979705</v>
+      </c>
+      <c r="O6">
+        <v>0.2997993941754699</v>
+      </c>
+      <c r="P6">
+        <v>0.29979939417547</v>
+      </c>
+      <c r="Q6">
+        <v>2965.385415056202</v>
+      </c>
+      <c r="R6">
+        <v>26688.46873550582</v>
+      </c>
+      <c r="S6">
+        <v>0.2664996923233407</v>
+      </c>
+      <c r="T6">
+        <v>0.2664996923233408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>125.3338013333333</v>
+      </c>
+      <c r="H7">
+        <v>376.001404</v>
+      </c>
+      <c r="I7">
+        <v>0.888926720670292</v>
+      </c>
+      <c r="J7">
+        <v>0.8889267206702921</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.230717</v>
+      </c>
+      <c r="O7">
+        <v>0.0009744872400636476</v>
+      </c>
+      <c r="P7">
+        <v>0.0009744872400636479</v>
+      </c>
+      <c r="Q7">
+        <v>9.638879547407555</v>
+      </c>
+      <c r="R7">
+        <v>86.749915926668</v>
+      </c>
+      <c r="S7">
+        <v>0.0008662477466448218</v>
+      </c>
+      <c r="T7">
+        <v>0.0008662477466448223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>125.3338013333333</v>
+      </c>
+      <c r="H8">
+        <v>376.001404</v>
+      </c>
+      <c r="I8">
+        <v>0.888926720670292</v>
+      </c>
+      <c r="J8">
+        <v>0.8889267206702921</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>53.21452433333334</v>
+      </c>
+      <c r="N8">
+        <v>159.643573</v>
+      </c>
+      <c r="O8">
+        <v>0.6742919890890982</v>
+      </c>
+      <c r="P8">
+        <v>0.6742919890890983</v>
+      </c>
+      <c r="Q8">
+        <v>6669.578620841832</v>
+      </c>
+      <c r="R8">
+        <v>60026.20758757649</v>
+      </c>
+      <c r="S8">
+        <v>0.5993961666352203</v>
+      </c>
+      <c r="T8">
+        <v>0.5993961666352206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>125.3338013333333</v>
+      </c>
+      <c r="H9">
+        <v>376.001404</v>
+      </c>
+      <c r="I9">
+        <v>0.888926720670292</v>
+      </c>
+      <c r="J9">
+        <v>0.8889267206702921</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.967779333333333</v>
+      </c>
+      <c r="N9">
+        <v>5.903338</v>
+      </c>
+      <c r="O9">
+        <v>0.02493412949536815</v>
+      </c>
+      <c r="P9">
+        <v>0.02493412949536816</v>
+      </c>
+      <c r="Q9">
+        <v>246.6292640318391</v>
+      </c>
+      <c r="R9">
+        <v>2219.663376286552</v>
+      </c>
+      <c r="S9">
+        <v>0.02216461396508601</v>
+      </c>
+      <c r="T9">
+        <v>0.02216461396508602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.01988966666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.059669</v>
+      </c>
+      <c r="I10">
+        <v>0.000141066942653426</v>
+      </c>
+      <c r="J10">
+        <v>0.000141066942653426</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>23.65990166666667</v>
+      </c>
+      <c r="N10">
+        <v>70.979705</v>
+      </c>
+      <c r="O10">
+        <v>0.2997993941754699</v>
+      </c>
+      <c r="P10">
+        <v>0.29979939417547</v>
+      </c>
+      <c r="Q10">
+        <v>0.4705875575161111</v>
+      </c>
+      <c r="R10">
+        <v>4.235288017645</v>
+      </c>
+      <c r="S10">
+        <v>4.229178394568287E-05</v>
+      </c>
+      <c r="T10">
+        <v>4.229178394568288E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.01988966666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.059669</v>
+      </c>
+      <c r="I11">
+        <v>0.000141066942653426</v>
+      </c>
+      <c r="J11">
+        <v>0.000141066942653426</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.230717</v>
+      </c>
+      <c r="O11">
+        <v>0.0009744872400636476</v>
+      </c>
+      <c r="P11">
+        <v>0.0009744872400636479</v>
+      </c>
+      <c r="Q11">
+        <v>0.001529628074777778</v>
+      </c>
+      <c r="R11">
+        <v>0.013766652673</v>
+      </c>
+      <c r="S11">
+        <v>1.374679356105539E-07</v>
+      </c>
+      <c r="T11">
+        <v>1.37467935610554E-07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01988966666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.059669</v>
+      </c>
+      <c r="I12">
+        <v>0.000141066942653426</v>
+      </c>
+      <c r="J12">
+        <v>0.000141066942653426</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>53.21452433333334</v>
+      </c>
+      <c r="N12">
+        <v>159.643573</v>
+      </c>
+      <c r="O12">
+        <v>0.6742919890890982</v>
+      </c>
+      <c r="P12">
+        <v>0.6742919890890983</v>
+      </c>
+      <c r="Q12">
+        <v>1.058419150815222</v>
+      </c>
+      <c r="R12">
+        <v>9.525772357337001</v>
+      </c>
+      <c r="S12">
+        <v>9.512030935649635E-05</v>
+      </c>
+      <c r="T12">
+        <v>9.512030935649639E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01988966666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.059669</v>
+      </c>
+      <c r="I13">
+        <v>0.000141066942653426</v>
+      </c>
+      <c r="J13">
+        <v>0.000141066942653426</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.967779333333333</v>
+      </c>
+      <c r="N13">
+        <v>5.903338</v>
+      </c>
+      <c r="O13">
+        <v>0.02493412949536815</v>
+      </c>
+      <c r="P13">
+        <v>0.02493412949536816</v>
+      </c>
+      <c r="Q13">
+        <v>0.03913847501355556</v>
+      </c>
+      <c r="R13">
+        <v>0.352246275122</v>
+      </c>
+      <c r="S13">
+        <v>3.517381415636196E-06</v>
+      </c>
+      <c r="T13">
+        <v>3.517381415636198E-06</v>
       </c>
     </row>
   </sheetData>
